--- a/data/CreateLeadNeg.xlsx
+++ b/data/CreateLeadNeg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>cName</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>The following required parameter is missing: [crmsfa.createLead.companyName]</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>DemoSalesManager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
   </si>
 </sst>
 </file>
@@ -402,74 +414,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
